--- a/Team-Data/2013-14/4-14-2013-14.xlsx
+++ b/Team-Data/2013-14/4-14-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>0.457</v>
+        <v>0.463</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,7 +751,7 @@
         <v>37.3</v>
       </c>
       <c r="J2" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K2" t="n">
         <v>0.457</v>
@@ -696,7 +763,7 @@
         <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
@@ -720,10 +787,10 @@
         <v>24.8</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
@@ -738,13 +805,13 @@
         <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC2" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -765,10 +832,10 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
@@ -786,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>18</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
         <v>12</v>
@@ -816,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="n">
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="n">
-        <v>0.309</v>
+        <v>0.313</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -875,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N3" t="n">
         <v>0.334</v>
@@ -884,10 +951,10 @@
         <v>16.1</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
         <v>12</v>
@@ -911,37 +978,37 @@
         <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.2</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="n">
         <v>-4.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -950,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>18</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>7</v>
@@ -980,13 +1047,13 @@
         <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1132,7 +1199,7 @@
         <v>10</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
@@ -1144,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1171,10 +1238,10 @@
         <v>28</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="n">
         <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,7 +1297,7 @@
         <v>36.3</v>
       </c>
       <c r="J5" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.443</v>
@@ -1239,19 +1306,19 @@
         <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
         <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R5" t="n">
         <v>9.4</v>
@@ -1260,37 +1327,37 @@
         <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V5" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W5" t="n">
         <v>6.1</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
         <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA5" t="n">
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC5" t="n">
         <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1311,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>25</v>
@@ -1320,13 +1387,13 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.593</v>
+        <v>0.588</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L6" t="n">
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N6" t="n">
         <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.78</v>
@@ -1442,7 +1509,7 @@
         <v>32.7</v>
       </c>
       <c r="T6" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U6" t="n">
         <v>22.7</v>
@@ -1460,19 +1527,19 @@
         <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1505,7 +1572,7 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
@@ -1526,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1669,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1884,7 +1951,7 @@
         <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>-2</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>8</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
@@ -2272,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="n">
         <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>0.617</v>
+        <v>0.613</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="J11" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M11" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="N11" t="n">
         <v>0.38</v>
@@ -2340,28 +2407,28 @@
         <v>15.8</v>
       </c>
       <c r="P11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S11" t="n">
         <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U11" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5</v>
@@ -2373,16 +2440,16 @@
         <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>104.1</v>
+        <v>103.8</v>
       </c>
       <c r="AC11" t="n">
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2406,10 +2473,10 @@
         <v>9</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
         <v>4</v>
@@ -2424,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2439,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="AW11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2448,7 +2515,7 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.663</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2510,13 +2577,13 @@
         <v>0.473</v>
       </c>
       <c r="L12" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M12" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
         <v>22.2</v>
@@ -2525,34 +2592,34 @@
         <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.712</v>
+        <v>0.711</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U12" t="n">
         <v>21.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA12" t="n">
         <v>24.4</v>
@@ -2564,16 +2631,16 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
@@ -2588,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2630,7 +2697,7 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2767,7 +2834,7 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>23</v>
@@ -2776,13 +2843,13 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>8</v>
@@ -2812,7 +2879,7 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
         <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.321</v>
+        <v>0.313</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3062,28 +3129,28 @@
         <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O15" t="n">
         <v>17</v>
       </c>
       <c r="P15" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
         <v>9.1</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U15" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
@@ -3104,13 +3171,13 @@
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3131,13 +3198,13 @@
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
@@ -3146,7 +3213,7 @@
         <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>17</v>
@@ -3164,19 +3231,19 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" t="n">
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I16" t="n">
         <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L16" t="n">
         <v>4.9</v>
@@ -3244,7 +3311,7 @@
         <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>15.1</v>
@@ -3253,7 +3320,7 @@
         <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R16" t="n">
         <v>11.5</v>
@@ -3268,13 +3335,13 @@
         <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W16" t="n">
         <v>7.7</v>
       </c>
       <c r="X16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y16" t="n">
         <v>5</v>
@@ -3289,19 +3356,19 @@
         <v>96</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -3310,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3349,16 +3416,16 @@
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>0.667</v>
+        <v>0.675</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J17" t="n">
         <v>76.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.502</v>
+        <v>0.503</v>
       </c>
       <c r="L17" t="n">
         <v>8.1</v>
@@ -3426,25 +3493,25 @@
         <v>22.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O17" t="n">
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="U17" t="n">
         <v>22.6</v>
@@ -3462,34 +3529,34 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG17" t="n">
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3513,7 +3580,7 @@
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
       </c>
       <c r="F18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>0.185</v>
+        <v>0.188</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O18" t="n">
         <v>16.8</v>
@@ -3617,16 +3684,16 @@
         <v>22.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>21.4</v>
@@ -3650,13 +3717,13 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>26</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>21</v>
@@ -3710,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3719,7 +3786,7 @@
         <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -3760,40 +3827,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
       </c>
       <c r="F19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.494</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J19" t="n">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
         <v>7.3</v>
       </c>
       <c r="M19" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.34</v>
       </c>
       <c r="O19" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P19" t="n">
         <v>27.7</v>
@@ -3808,13 +3875,13 @@
         <v>32.2</v>
       </c>
       <c r="T19" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V19" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
         <v>8.699999999999999</v>
@@ -3823,22 +3890,22 @@
         <v>3.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
         <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3892,7 +3959,7 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
         <v>48</v>
       </c>
       <c r="G20" t="n">
-        <v>0.407</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3969,19 +4036,19 @@
         <v>5.9</v>
       </c>
       <c r="M20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
         <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R20" t="n">
         <v>11.4</v>
@@ -3993,34 +4060,34 @@
         <v>41.7</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W20" t="n">
         <v>7.9</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
         <v>6.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA20" t="n">
         <v>20.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4032,13 +4099,13 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>11</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>12</v>
@@ -4074,7 +4141,7 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4223,7 +4290,7 @@
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>7</v>
@@ -4253,7 +4320,7 @@
         <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4271,7 +4338,7 @@
         <v>24</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -4306,52 +4373,52 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="n">
         <v>58</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>0.716</v>
+        <v>0.725</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
         <v>82.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
         <v>8.1</v>
       </c>
       <c r="M22" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P22" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
         <v>44.7</v>
@@ -4363,7 +4430,7 @@
         <v>15.3</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW22" t="n">
         <v>9</v>
@@ -4453,7 +4520,7 @@
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" t="n">
-        <v>0.284</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
@@ -4506,19 +4573,19 @@
         <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O23" t="n">
         <v>15.9</v>
@@ -4527,46 +4594,46 @@
         <v>20.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R23" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
         <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
         <v>21.1</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4596,7 +4663,7 @@
         <v>21</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
         <v>25</v>
@@ -4620,19 +4687,19 @@
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY23" t="n">
         <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>63</v>
       </c>
       <c r="G24" t="n">
-        <v>0.222</v>
+        <v>0.213</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
       </c>
       <c r="I24" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J24" t="n">
-        <v>87.40000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.311</v>
@@ -4706,10 +4773,10 @@
         <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="R24" t="n">
         <v>11.7</v>
@@ -4718,13 +4785,13 @@
         <v>31.2</v>
       </c>
       <c r="T24" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W24" t="n">
         <v>9.300000000000001</v>
@@ -4742,13 +4809,13 @@
         <v>20.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.7</v>
+        <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,19 +4827,19 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
         <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4784,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4799,7 +4866,7 @@
         <v>15</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>47</v>
       </c>
       <c r="F25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>0.58</v>
+        <v>0.588</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,25 +4937,25 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M25" t="n">
         <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q25" t="n">
         <v>0.759</v>
@@ -4897,52 +4964,52 @@
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
         <v>15.4</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4954,13 +5021,13 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4969,22 +5036,22 @@
         <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -4993,7 +5060,7 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>5</v>
@@ -5136,7 +5203,7 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5178,7 +5245,7 @@
         <v>6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>22</v>
       </c>
       <c r="AJ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>18</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5369,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
         <v>62</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.765</v>
+        <v>0.775</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,28 +5483,28 @@
         <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
@@ -5452,13 +5519,13 @@
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
@@ -5470,13 +5537,13 @@
         <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,16 +5591,16 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" t="n">
         <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.593</v>
+        <v>0.588</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5604,13 +5671,13 @@
         <v>0.445</v>
       </c>
       <c r="L29" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M29" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O29" t="n">
         <v>19.7</v>
@@ -5628,7 +5695,7 @@
         <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U29" t="n">
         <v>21.2</v>
@@ -5640,7 +5707,7 @@
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>4.3</v>
@@ -5652,13 +5719,13 @@
         <v>22.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5673,22 +5740,22 @@
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5697,10 +5764,10 @@
         <v>7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
@@ -5718,7 +5785,7 @@
         <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
-        <v>0.296</v>
+        <v>0.3</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
         <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L30" t="n">
         <v>6.6</v>
@@ -5795,13 +5862,13 @@
         <v>0.346</v>
       </c>
       <c r="O30" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P30" t="n">
         <v>21.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
@@ -5810,13 +5877,13 @@
         <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W30" t="n">
         <v>6.9</v>
@@ -5834,13 +5901,13 @@
         <v>20.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5882,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5891,10 +5958,10 @@
         <v>24</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
@@ -5944,46 +6011,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="n">
         <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.531</v>
+        <v>0.525</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L31" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O31" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P31" t="n">
         <v>21</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
         <v>10.9</v>
@@ -5995,7 +6062,7 @@
         <v>42.3</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
@@ -6004,25 +6071,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA31" t="n">
         <v>19.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6043,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6073,25 +6140,25 @@
         <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-14-2013-14</t>
+          <t>2014-04-14</t>
         </is>
       </c>
     </row>
